--- a/convertStringRes/Pad国际化翻译.xlsx
+++ b/convertStringRes/Pad国际化翻译.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="765">
   <si>
     <t>确定</t>
   </si>
@@ -663,10 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,1875 +707,1978 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lock_Uninsured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Alreadylocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Nonlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_View_Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Hold_Talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_In_Speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Input_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Being_Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Opened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Overtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_More_Mistakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doorbell_Caller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Unable_Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_HD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_SD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_UHD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Unbound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用说明</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text02</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text03</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text04</t>
+  </si>
+  <si>
+    <t>已撤防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_02_Passby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Security_Fortification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Security_Disarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_06_WaterLeakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_43_Smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_09_GasLeakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火灾报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Noalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Atalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Universalalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_04_Emergencycall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch_On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch_Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭门铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Default_Name_A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_A6_On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_A6_Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人按门铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_A5_Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_25_Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前温度</t>
+  </si>
+  <si>
+    <t>Current Temp</t>
+  </si>
+  <si>
+    <t>当前湿度</t>
+  </si>
+  <si>
+    <t>Current Humi</t>
+  </si>
+  <si>
+    <t>设备已离线</t>
+  </si>
+  <si>
+    <t>Device Offline</t>
+  </si>
+  <si>
+    <t>湿冷</t>
+  </si>
+  <si>
+    <t>Wet Cold</t>
+  </si>
+  <si>
+    <t>偏冷</t>
+  </si>
+  <si>
+    <t>Relatively Cold</t>
+  </si>
+  <si>
+    <t>寒冷</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>干冷</t>
+  </si>
+  <si>
+    <t>Dry Cold</t>
+  </si>
+  <si>
+    <t>潮湿</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>舒适</t>
+  </si>
+  <si>
+    <t>Cosy</t>
+  </si>
+  <si>
+    <t>干燥</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>湿热</t>
+  </si>
+  <si>
+    <t>Wet Hot</t>
+  </si>
+  <si>
+    <t>偏热</t>
+  </si>
+  <si>
+    <t>Relatively Hot</t>
+  </si>
+  <si>
+    <t>炎热</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>干热</t>
+  </si>
+  <si>
+    <t>Dry Hot</t>
+  </si>
+  <si>
+    <t>注意保暖，建议除湿</t>
+  </si>
+  <si>
+    <t>Keep warm and do dehumidification</t>
+  </si>
+  <si>
+    <t>注意保暖</t>
+  </si>
+  <si>
+    <t>Pay attention to keep warm</t>
+  </si>
+  <si>
+    <t>防寒保暖，刻不容缓</t>
+  </si>
+  <si>
+    <t>It's urgent to keep warm</t>
+  </si>
+  <si>
+    <t>注意保暖，补充水分</t>
+  </si>
+  <si>
+    <t>Keep warm and re-hydrate</t>
+  </si>
+  <si>
+    <t>影响身体健康，建议除湿</t>
+  </si>
+  <si>
+    <t>Unhealthful， and dehumidification is suggested</t>
+  </si>
+  <si>
+    <t>注意补充水分</t>
+  </si>
+  <si>
+    <t>Pay attention to rehydration</t>
+  </si>
+  <si>
+    <t>注意防暑降温，建议除湿</t>
+  </si>
+  <si>
+    <t>Please do heat control and dehumidification</t>
+  </si>
+  <si>
+    <t>注意防暑降温</t>
+  </si>
+  <si>
+    <t>Pay attention to heat cooling</t>
+  </si>
+  <si>
+    <t>防暑降温，刻不容缓</t>
+  </si>
+  <si>
+    <t>It's urgent to do heat cooling</t>
+  </si>
+  <si>
+    <t>注意防暑降温，补充水分</t>
+  </si>
+  <si>
+    <t>Control heat and re-hydrate</t>
+  </si>
+  <si>
+    <t>Temp &amp; Humi change during last 24 hours</t>
+  </si>
+  <si>
+    <t>humiture_nowTemp</t>
+  </si>
+  <si>
+    <t>humiture_nowHum</t>
+  </si>
+  <si>
+    <t>offLine</t>
+  </si>
+  <si>
+    <t>humiture_title_01</t>
+  </si>
+  <si>
+    <t>humiture_title_02</t>
+  </si>
+  <si>
+    <t>humiture_title_03</t>
+  </si>
+  <si>
+    <t>humiture_title_04</t>
+  </si>
+  <si>
+    <t>humiture_title_05</t>
+  </si>
+  <si>
+    <t>humiture_title_06</t>
+  </si>
+  <si>
+    <t>humiture_title_07</t>
+  </si>
+  <si>
+    <t>humiture_title_08</t>
+  </si>
+  <si>
+    <t>humiture_title_09</t>
+  </si>
+  <si>
+    <t>humiture_title_10</t>
+  </si>
+  <si>
+    <t>humiture_title_11</t>
+  </si>
+  <si>
+    <t>humiture_txt_01</t>
+  </si>
+  <si>
+    <t>humiture_txt_02</t>
+  </si>
+  <si>
+    <t>humiture_txt_03</t>
+  </si>
+  <si>
+    <t>humiture_txt_04</t>
+  </si>
+  <si>
+    <t>humiture_txt_05</t>
+  </si>
+  <si>
+    <t>humiture_txt_06</t>
+  </si>
+  <si>
+    <t>humiture_txt_07</t>
+  </si>
+  <si>
+    <t>humiture_txt_08</t>
+  </si>
+  <si>
+    <t>humiture_txt_09</t>
+  </si>
+  <si>
+    <t>humiture_txt_10</t>
+  </si>
+  <si>
+    <t>humiture_title</t>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Categories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Areas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unclassified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bind User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情景任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkage Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timed Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Housekeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开启推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed Push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>分享来自：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Share from </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱或手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone Number Or Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录中...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect user password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-time Power </t>
+  </si>
+  <si>
+    <t>Cumulative Power</t>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>用电数据统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity Consumption Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity Consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation_doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门磁打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact Sensor is opened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改开关名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Switch Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No support for the time being&lt;br /&gt;The follow-up will be gradually improved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G企鹅摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G Smart Cloud Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能猫眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door Guardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便看摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lookever Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能猫眼mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ding-dong mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外高清摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weather-proof HD Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless Scenario Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二氧化碳监测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2 Detector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5检测仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5 Detector Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗磁探测器</t>
+  </si>
+  <si>
+    <t>Contact Sensor</t>
+  </si>
+  <si>
+    <t>墙面插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall Socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动插座计量版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile Socket (metering)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浸传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Sensor</t>
+  </si>
+  <si>
+    <t>Siren</t>
+  </si>
+  <si>
+    <t>Temp &amp; Humi Sensor</t>
+  </si>
+  <si>
+    <t>Flammable Gas Sensor</t>
+  </si>
+  <si>
+    <t>Smoke Sensor</t>
+  </si>
+  <si>
+    <t>Password Lock</t>
+  </si>
+  <si>
+    <t>红外入侵探测器</t>
+  </si>
+  <si>
+    <t>PIR Motion Sensor</t>
+  </si>
+  <si>
+    <t>网络智能锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Retina Lock</t>
+  </si>
+  <si>
+    <t>玄武湖系列网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xuan Serial Smart Lock</t>
+  </si>
+  <si>
+    <t>六路场景开关02型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene Switch</t>
+  </si>
+  <si>
+    <t>单轨自动窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curtain Motor</t>
+  </si>
+  <si>
+    <t>Embedded Switch (1 gang)</t>
+  </si>
+  <si>
+    <t>Embedded Switch (2 gangs)</t>
+  </si>
+  <si>
+    <t>网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Touch Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智尚金属单路开关</t>
+  </si>
+  <si>
+    <t>Smart Metallic Switch (1 gang)</t>
+  </si>
+  <si>
+    <t>智尚金属两路开关</t>
+  </si>
+  <si>
+    <t>Smart Metallic Switch (2 gangs)</t>
+  </si>
+  <si>
+    <t>智尚金属三路开关</t>
+  </si>
+  <si>
+    <t>Smart Metallic Switch (3 gangs)</t>
+  </si>
+  <si>
+    <t>智尚金属窗帘控制器</t>
+  </si>
+  <si>
+    <t>Smart Metallic Curtain Controller</t>
+  </si>
+  <si>
+    <t>紫金山网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z Serial IoT Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panic Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞庭湖系列网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bern Serial IoT Doorlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络锁02型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Touch Lock 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One-way Switch</t>
+  </si>
+  <si>
+    <t>Two-way Switch</t>
+  </si>
+  <si>
+    <t>Three-way Switch</t>
+  </si>
+  <si>
+    <t>小物摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cylincam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一路绑定开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binding Switch (One Gang)</t>
+  </si>
+  <si>
+    <t>Binding Switch (Two Gangs)</t>
+  </si>
+  <si>
+    <t>Binding Switch (Three Gangs)</t>
+  </si>
+  <si>
+    <t>Curtain Controller</t>
+  </si>
+  <si>
+    <t>Air Switch (Metering Type)</t>
+  </si>
+  <si>
+    <t>双轨双驱自动窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double-track &amp; dual-driver curtain</t>
+  </si>
+  <si>
+    <t>Repeater</t>
+  </si>
+  <si>
+    <t>门铃声光器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doorbell Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位场景开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 gang wireless switch</t>
+  </si>
+  <si>
+    <t>2 gang wireless switch</t>
+  </si>
+  <si>
+    <t>3 gang wireless switch</t>
+  </si>
+  <si>
+    <t>Wireless home/away scenario switch</t>
+  </si>
+  <si>
+    <t>Wireless sleep/wake up scenario switch</t>
+  </si>
+  <si>
+    <t>2 gang curtain/roller blind switch</t>
+  </si>
+  <si>
+    <t>HVAC Controller(VRV)</t>
+  </si>
+  <si>
+    <t>Zigbee地暖控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heating Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美标控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.S. Standard Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二氧化碳监测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2 Detector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5 Detector</t>
+  </si>
+  <si>
+    <t>Noise Detector</t>
+  </si>
+  <si>
+    <t>VOC Detector</t>
+  </si>
+  <si>
+    <t>LED Rainbow</t>
+  </si>
+  <si>
+    <t>Broadcasting station</t>
+  </si>
+  <si>
+    <t>全宅背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外转发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR Transmitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动插座非计量版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile Socket（Non metrology）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动机械手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric Manipulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光强监测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light intensity monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能晾衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Clothes Hanger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED炫彩灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门铃按钮02型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doorbell Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半角度红外转发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR Transmitter(Semi Direction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位免零线智能调光开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Gang Dimmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini网关声光设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini Gateway sound and light device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单火线单路触摸调光开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两位插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double GPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 x Multifunction Remote Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六键场景开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 x Multifunction Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Dimmer Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六键开关模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-Circuit Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2模组-场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 x Multifunction Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2模组-开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想之花网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream Flower Gateway</t>
+  </si>
+  <si>
+    <t>墙面网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall Mounted Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖型网关(04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertical Gateway (04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02型网关(增强型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway (Enhanced version)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关02型(局域网)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Gateway(LAN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸顶网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceiling gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G企鹅1080P摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外摄像机网关</t>
+  </si>
+  <si>
+    <t>Outdoor Gateway</t>
+  </si>
+  <si>
+    <t>小物摄像机网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cylincam Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便看网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lookever Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Camera Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0106012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已设防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disarmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数缺失或不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter loss or illegality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有权限进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No authority to operate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求签名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request signature error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user has already existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell phone verification code failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell phone verification code error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Got it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>已上保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety On</t>
+  </si>
+  <si>
+    <t>Safety Removed</t>
+  </si>
+  <si>
+    <t>已反锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>UHD</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>View Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press to Speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开锁中…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the lock…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁已开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock is open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request timeout， please try again</t>
+  </si>
+  <si>
+    <t>Door is double-locked and cannot be unlocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door bell is calling…</t>
+  </si>
+  <si>
+    <t>门铃来电...</t>
+  </si>
+  <si>
+    <t>高清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unbound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Notbound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not to bind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本产品仅可在设备端使用按键控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The product can be only controlled manually via button</t>
+  </si>
+  <si>
+    <t>Using instruction</t>
+  </si>
+  <si>
+    <t>已打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设防中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人经过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Someone passing by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有漏水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Leakage Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoke Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有可燃气体泄漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flammable gas warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Alarm</t>
+  </si>
+  <si>
+    <t>General Alarm</t>
+  </si>
+  <si>
+    <t>Fire Alarm</t>
+  </si>
+  <si>
+    <t>Stop Alarm</t>
+  </si>
+  <si>
+    <t>Alarming</t>
+  </si>
+  <si>
+    <t>正在紧急呼救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emergency Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启门铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Doorbell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Close Doorbell </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doorbell is ringing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去24小时温湿度变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connected Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firmware Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noscene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Firealarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Stopalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即可通过开关按键控制被绑定设备；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text05</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text06</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text07</t>
+  </si>
+  <si>
+    <t>then users can control the device to be bound via this device's button;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No scene yet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求超时，请检查网络！</t>
+  </si>
+  <si>
+    <t>Request timeout， please check the network</t>
+  </si>
+  <si>
+    <t>暂不支持，后续将逐渐完善</t>
+  </si>
+  <si>
+    <t>Smart dimmer switch (One gang， L)</t>
+  </si>
+  <si>
+    <t>电量低，请及时更换电池</t>
+  </si>
+  <si>
+    <t>The battery is low， please replace the battery in time</t>
+  </si>
+  <si>
+    <t>当前功率超出额定范围，已自动为您断电</t>
+  </si>
+  <si>
+    <t>The current power exceeding rated range，and the power is automatically cut off for you</t>
+  </si>
+  <si>
+    <t>Token失效，请重新登录</t>
+  </si>
+  <si>
+    <t>Token failure， please log in again</t>
+  </si>
+  <si>
+    <t>您的账号在另一设备上登录，如果不是本人操作，建议登录后修改密码</t>
+  </si>
+  <si>
+    <t>Your account is logined in another device. If it's not operated by you， password modification is highly recommended.</t>
+  </si>
+  <si>
+    <t>密码错误，请重试</t>
+  </si>
+  <si>
+    <t>Incorrect password， please try again</t>
+  </si>
+  <si>
+    <t>请求超时，请重试</t>
+  </si>
+  <si>
+    <t>操作失败，请重试</t>
+  </si>
+  <si>
+    <t>Operation failed， please try again</t>
+  </si>
+  <si>
     <t>输入错误次数较多，门锁已被锁定，5分钟后再试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误，请重试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作失败，请重试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Uninsured</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Insurance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Alreadylocked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Nonlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_View_Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Hold_Talk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_In_Speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Input_Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Being_Unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Opened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Password_Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Overtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_More_Mistakes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doorbell_Caller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Unable_Open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera_HD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera_SD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera_UHD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Unbound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用说明</t>
-  </si>
-  <si>
-    <t>&lt;em&gt;确定本设备与被绑定受控设备处于同一网关内，&lt;/em&gt;按住本设备【set键】，同时快击1下本设备需要绑定的开关按键，然后松开需要绑定的开关按键，【系统指示灯】闪烁1次并发出绑定请求。</t>
-  </si>
-  <si>
-    <t>20s内按上述相同方法操作被绑定设备按键，若绑定成功，【系统指示灯】闪烁3次，&lt;em&gt;即可通过开关按键控制被绑定设备；&lt;/em&gt;若绑定失败，【系统指示灯】闪烁6次。</t>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text02</t>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text03</t>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text04</t>
-  </si>
-  <si>
-    <t>已撤防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_02_Passby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Security_Fortification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Security_Disarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_06_WaterLeakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_43_Smoke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_09_GasLeakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火灾报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_01_Noalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_01_Atalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_01_Universalalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_04_Emergencycall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch_On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch_Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭门铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Default_Name_A6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_A6_On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_A6_Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有人按门铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_A5_Ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple incorrect password enterings， lock is disabled， try again in 5 minutes</t>
+  </si>
+  <si>
+    <t>门已反锁，无法打开</t>
+  </si>
+  <si>
+    <t>确定本设备与被绑定受控设备处于同一网关内，</t>
+  </si>
+  <si>
+    <t>Make sure this device is under the same gateway with the device to be bound，</t>
+  </si>
+  <si>
+    <t>按住本设备【set键】，同时快击1下本设备需要绑定的开关按键，然后松开需要绑定的开关按键，【系统指示灯】闪烁1次并发出绑定请求。</t>
+  </si>
+  <si>
+    <t>press [SET KEY] and quickly click the button to be bound on this device 1 time， [SYSTEM INDICATOR] flickers 1 time and send out binding request.</t>
+  </si>
+  <si>
+    <t>20s内按上述相同方法操作被绑定设备按键，若绑定成功，【系统指示灯】闪烁3次，</t>
+  </si>
+  <si>
+    <t>Operate with the same method above within 20 seconds on the device to be bound. If binding is successful， [SYSTEM INDICATOR] flickers 3 times，</t>
+  </si>
+  <si>
+    <t>若绑定失败，【系统指示灯】闪烁6次。</t>
+  </si>
+  <si>
+    <t>if binding fails， [SYSTME INDICATOR] flickers 6 times.</t>
   </si>
   <si>
     <t>未知状态，请检查设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_25_Unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前温度</t>
-  </si>
-  <si>
-    <t>Current Temp</t>
-  </si>
-  <si>
-    <t>当前湿度</t>
-  </si>
-  <si>
-    <t>Current Humi</t>
-  </si>
-  <si>
-    <t>设备已离线</t>
-  </si>
-  <si>
-    <t>Device Offline</t>
-  </si>
-  <si>
-    <t>湿冷</t>
-  </si>
-  <si>
-    <t>Wet Cold</t>
-  </si>
-  <si>
-    <t>偏冷</t>
-  </si>
-  <si>
-    <t>Relatively Cold</t>
-  </si>
-  <si>
-    <t>寒冷</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>干冷</t>
-  </si>
-  <si>
-    <t>Dry Cold</t>
-  </si>
-  <si>
-    <t>潮湿</t>
-  </si>
-  <si>
-    <t>Wet</t>
-  </si>
-  <si>
-    <t>舒适</t>
-  </si>
-  <si>
-    <t>Cosy</t>
-  </si>
-  <si>
-    <t>干燥</t>
-  </si>
-  <si>
-    <t>Dry</t>
-  </si>
-  <si>
-    <t>湿热</t>
-  </si>
-  <si>
-    <t>Wet Hot</t>
-  </si>
-  <si>
-    <t>偏热</t>
-  </si>
-  <si>
-    <t>Relatively Hot</t>
-  </si>
-  <si>
-    <t>炎热</t>
-  </si>
-  <si>
-    <t>Hot</t>
-  </si>
-  <si>
-    <t>干热</t>
-  </si>
-  <si>
-    <t>Dry Hot</t>
-  </si>
-  <si>
-    <t>注意保暖，建议除湿</t>
-  </si>
-  <si>
-    <t>Keep warm and do dehumidification</t>
-  </si>
-  <si>
-    <t>注意保暖</t>
-  </si>
-  <si>
-    <t>Pay attention to keep warm</t>
-  </si>
-  <si>
-    <t>防寒保暖，刻不容缓</t>
-  </si>
-  <si>
-    <t>It's urgent to keep warm</t>
-  </si>
-  <si>
-    <t>注意保暖，补充水分</t>
-  </si>
-  <si>
-    <t>Keep warm and re-hydrate</t>
-  </si>
-  <si>
-    <t>影响身体健康，建议除湿</t>
-  </si>
-  <si>
-    <t>Unhealthful， and dehumidification is suggested</t>
-  </si>
-  <si>
-    <t>注意补充水分</t>
-  </si>
-  <si>
-    <t>Pay attention to rehydration</t>
-  </si>
-  <si>
-    <t>注意防暑降温，建议除湿</t>
-  </si>
-  <si>
-    <t>Please do heat control and dehumidification</t>
-  </si>
-  <si>
-    <t>注意防暑降温</t>
-  </si>
-  <si>
-    <t>Pay attention to heat cooling</t>
-  </si>
-  <si>
-    <t>防暑降温，刻不容缓</t>
-  </si>
-  <si>
-    <t>It's urgent to do heat cooling</t>
-  </si>
-  <si>
-    <t>注意防暑降温，补充水分</t>
-  </si>
-  <si>
-    <t>Control heat and re-hydrate</t>
-  </si>
-  <si>
-    <t>Temp &amp; Humi change during last 24 hours</t>
-  </si>
-  <si>
-    <t>humiture_nowTemp</t>
-  </si>
-  <si>
-    <t>humiture_nowHum</t>
-  </si>
-  <si>
-    <t>offLine</t>
-  </si>
-  <si>
-    <t>humiture_title_01</t>
-  </si>
-  <si>
-    <t>humiture_title_02</t>
-  </si>
-  <si>
-    <t>humiture_title_03</t>
-  </si>
-  <si>
-    <t>humiture_title_04</t>
-  </si>
-  <si>
-    <t>humiture_title_05</t>
-  </si>
-  <si>
-    <t>humiture_title_06</t>
-  </si>
-  <si>
-    <t>humiture_title_07</t>
-  </si>
-  <si>
-    <t>humiture_title_08</t>
-  </si>
-  <si>
-    <t>humiture_title_09</t>
-  </si>
-  <si>
-    <t>humiture_title_10</t>
-  </si>
-  <si>
-    <t>humiture_title_11</t>
-  </si>
-  <si>
-    <t>humiture_txt_01</t>
-  </si>
-  <si>
-    <t>humiture_txt_02</t>
-  </si>
-  <si>
-    <t>humiture_txt_03</t>
-  </si>
-  <si>
-    <t>humiture_txt_04</t>
-  </si>
-  <si>
-    <t>humiture_txt_05</t>
-  </si>
-  <si>
-    <t>humiture_txt_06</t>
-  </si>
-  <si>
-    <t>humiture_txt_07</t>
-  </si>
-  <si>
-    <t>humiture_txt_08</t>
-  </si>
-  <si>
-    <t>humiture_txt_09</t>
-  </si>
-  <si>
-    <t>humiture_txt_10</t>
-  </si>
-  <si>
-    <t>humiture_title</t>
-  </si>
-  <si>
-    <t>正在开窗帘…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curtain_opening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Offline</t>
-  </si>
-  <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message Center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Categories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Areas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unclassified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway ID：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接设备：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connected Equipment：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关类型：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway Type：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固件版本：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firmware Version：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bind User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情景任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linkage Task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timed Task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Housekeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已开启推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closed Push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear Cache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>分享来自：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Share from </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱或手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phone Number Or Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Password </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logging in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录中...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求超时，请检查网络！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request timeout， please check the network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User does not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect user password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Real-time Power </t>
-  </si>
-  <si>
-    <t>Cumulative Power</t>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>用电数据统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electricity Consumption Statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用电量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electricity Consumption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation_doing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门磁打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact Sensor is opened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改开关名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify Switch Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不支持，后续将逐渐完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No support for the time being&lt;br /&gt;The follow-up will be gradually improved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unknown Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G企鹅摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G Smart Cloud Camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能猫眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Door Guardian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随便看摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lookever Camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能猫眼mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ding-dong mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户外高清摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weather-proof HD Camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥控器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wireless Scenario Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二氧化碳监测器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO2 Detector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM2.5检测仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM2.5 Detector Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门窗磁探测器</t>
-  </si>
-  <si>
-    <t>Contact Sensor</t>
-  </si>
-  <si>
-    <t>墙面插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wall Socket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动插座计量版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile Socket (metering)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水浸传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Sensor</t>
-  </si>
-  <si>
-    <t>Siren</t>
-  </si>
-  <si>
-    <t>Temp &amp; Humi Sensor</t>
-  </si>
-  <si>
-    <t>Flammable Gas Sensor</t>
-  </si>
-  <si>
-    <t>Smoke Sensor</t>
-  </si>
-  <si>
-    <t>Password Lock</t>
-  </si>
-  <si>
-    <t>红外入侵探测器</t>
-  </si>
-  <si>
-    <t>PIR Motion Sensor</t>
-  </si>
-  <si>
-    <t>网络智能锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Retina Lock</t>
-  </si>
-  <si>
-    <t>玄武湖系列网络锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xuan Serial Smart Lock</t>
-  </si>
-  <si>
-    <t>六路场景开关02型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene Switch</t>
-  </si>
-  <si>
-    <t>单轨自动窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curtain Motor</t>
-  </si>
-  <si>
-    <t>Embedded Switch (1 gang)</t>
-  </si>
-  <si>
-    <t>Embedded Switch (2 gangs)</t>
-  </si>
-  <si>
-    <t>网络锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Touch Lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智尚金属单路开关</t>
-  </si>
-  <si>
-    <t>Smart Metallic Switch (1 gang)</t>
-  </si>
-  <si>
-    <t>智尚金属两路开关</t>
-  </si>
-  <si>
-    <t>Smart Metallic Switch (2 gangs)</t>
-  </si>
-  <si>
-    <t>智尚金属三路开关</t>
-  </si>
-  <si>
-    <t>Smart Metallic Switch (3 gangs)</t>
-  </si>
-  <si>
-    <t>智尚金属窗帘控制器</t>
-  </si>
-  <si>
-    <t>Smart Metallic Curtain Controller</t>
-  </si>
-  <si>
-    <t>紫金山网络锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z Serial IoT Lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Panic Button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞庭湖系列网络锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bern Serial IoT Doorlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络锁02型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Touch Lock 02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单路开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One-way Switch</t>
-  </si>
-  <si>
-    <t>Two-way Switch</t>
-  </si>
-  <si>
-    <t>Three-way Switch</t>
-  </si>
-  <si>
-    <t>小物摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cylincam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一路绑定开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binding Switch (One Gang)</t>
-  </si>
-  <si>
-    <t>Binding Switch (Two Gangs)</t>
-  </si>
-  <si>
-    <t>Binding Switch (Three Gangs)</t>
-  </si>
-  <si>
-    <t>Curtain Controller</t>
-  </si>
-  <si>
-    <t>Air Switch (Metering Type)</t>
-  </si>
-  <si>
-    <t>双轨双驱自动窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double-track &amp; dual-driver curtain</t>
-  </si>
-  <si>
-    <t>Repeater</t>
-  </si>
-  <si>
-    <t>门铃声光器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doorbell Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一位场景开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 gang wireless switch</t>
-  </si>
-  <si>
-    <t>2 gang wireless switch</t>
-  </si>
-  <si>
-    <t>3 gang wireless switch</t>
-  </si>
-  <si>
-    <t>Wireless home/away scenario switch</t>
-  </si>
-  <si>
-    <t>Wireless sleep/wake up scenario switch</t>
-  </si>
-  <si>
-    <t>2 gang curtain/roller blind switch</t>
-  </si>
-  <si>
-    <t>HVAC Controller(VRV)</t>
-  </si>
-  <si>
-    <t>Zigbee地暖控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heating Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美标控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U.S. Standard Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二氧化碳监测器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO2 Detector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM2.5 Detector</t>
-  </si>
-  <si>
-    <t>Noise Detector</t>
-  </si>
-  <si>
-    <t>VOC Detector</t>
-  </si>
-  <si>
-    <t>LED Rainbow</t>
-  </si>
-  <si>
-    <t>Broadcasting station</t>
-  </si>
-  <si>
-    <t>全宅背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Background Music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外转发器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR Transmitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动插座非计量版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile Socket（Non metrology）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动机械手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electric Manipulator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光强监测器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Light intensity monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能晾衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Clothes Hanger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED炫彩灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED Rainbow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门铃按钮02型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doorbell Button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半角度红外转发器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR Transmitter(Semi Direction)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一位免零线智能调光开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Gang Dimmer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini网关声光设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini Gateway sound and light device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单火线单路触摸调光开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart dimmer switch (One gang， L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两位插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double GPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 x Multifunction Remote Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六键场景开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 x Multifunction Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Dimmer Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六键开关模组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-Circuit Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2模组-场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 x Multifunction Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2模组-开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想之花网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream Flower Gateway</t>
-  </si>
-  <si>
-    <t>墙面网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wall Mounted Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竖型网关(04)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vertical Gateway (04)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02型网关(增强型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway (Enhanced version)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关02型(局域网)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Gateway(LAN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸顶网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceiling gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G企鹅1080P摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户外摄像机网关</t>
-  </si>
-  <si>
-    <t>Outdoor Gateway</t>
-  </si>
-  <si>
-    <t>小物摄像机网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cylincam Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随便看网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lookever Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企鹅网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud Camera Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_alarm_0106012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已设防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disarmed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电量低，请及时更换电池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The battery is low， please replace the battery in time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已通电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前功率超出额定范围，已自动为您断电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The current power exceeding rated range，and the power is automatically cut off for you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数缺失或不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter loss or illegality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有权限进行操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No authority to operate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求签名错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request signature error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token失效，请重新登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Token failure, please log in again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The user has already existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The user does not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell phone verification code failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell phone verification code error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device does not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的账号在另一设备上登录，如果不是本人操作，建议登录后修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your account is logined in another device. If it's not operated by you， password modification is highly recommended.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我知道了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Got it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Execution Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock</t>
-  </si>
-  <si>
-    <t>已上保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safety On</t>
-  </si>
-  <si>
-    <t>Safety Removed</t>
-  </si>
-  <si>
-    <t>已反锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>UHD</t>
-  </si>
-  <si>
-    <t>Locked</t>
-  </si>
-  <si>
-    <t>View Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按住说话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Press to Speak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please enter password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开锁中…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the lock…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门锁已开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock is open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect password， please try again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求超时，请重试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request timeout， please try again</t>
-  </si>
-  <si>
-    <t>Operation failed， please try again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiple incorrect password enterings， lock is disabled， try again in 5 minutes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Door is double-locked and cannot be unlocked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门已反锁，无法打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Door bell is calling…</t>
-  </si>
-  <si>
-    <t>门铃来电...</t>
-  </si>
-  <si>
-    <t>高清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unbound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Notbound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not to bind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本产品仅可在设备端使用按键控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The product can be only controlled manually via button</t>
-  </si>
-  <si>
-    <t>Using instruction</t>
-  </si>
-  <si>
-    <t>&lt;em&gt;Make sure this device is under the same gateway with the device to be bound，&lt;/em&gt;press [SET KEY] and quickly click the button to be bound on this device 1 time， [SYSTEM INDICATOR] flickers 1 time and send out binding request.</t>
-  </si>
-  <si>
-    <t>Operate with the same method above within 20 seconds on the device to be bound. If binding is successful， [SYSTEM INDICATOR] flickers 3 times，&lt;em&gt;then users can control the device to be bound via this device's button;&lt;/em&gt;if binding fails， [SYSTME INDICATOR] flickers 6 times.</t>
-  </si>
-  <si>
-    <t>已打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设防中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有人经过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Someone passing by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有漏水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Leakage Warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有烟雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smoke Warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有可燃气体泄漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flammable gas warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Alarm</t>
-  </si>
-  <si>
-    <t>General Alarm</t>
-  </si>
-  <si>
-    <t>Fire Alarm</t>
-  </si>
-  <si>
-    <t>Stop Alarm</t>
-  </si>
-  <si>
-    <t>Alarming</t>
-  </si>
-  <si>
-    <t>正在紧急呼救</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emergency Call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启门铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Doorbell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Close Doorbell </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doorbell is ringing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去24小时温湿度变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The curtain is being opened</t>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Humidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Humidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Curtains_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Curtains_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curtain 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curtain 2</t>
+  </si>
+  <si>
+    <t>暂无图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_Nopicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_cspwderror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_cs10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回部分参数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return part of the parameter is empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Default_Name_CMICA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penguin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2951,15 +3050,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D248"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="1" customWidth="1"/>
@@ -2985,13 +3084,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3005,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3016,10 +3115,10 @@
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -3030,10 +3129,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -3044,10 +3143,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -3061,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -3075,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -3086,10 +3185,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -3103,7 +3202,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -3114,10 +3213,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -3128,10 +3227,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -3142,10 +3241,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>381</v>
+        <v>694</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>382</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -3156,10 +3255,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>214</v>
+        <v>695</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>383</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -3170,10 +3269,10 @@
         <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>384</v>
+        <v>696</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>385</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -3184,10 +3283,10 @@
         <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>386</v>
+        <v>697</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>387</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -3198,10 +3297,10 @@
         <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>388</v>
+        <v>698</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>389</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -3212,10 +3311,10 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -3226,10 +3325,10 @@
         <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -3240,10 +3339,10 @@
         <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -3254,10 +3353,10 @@
         <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -3268,10 +3367,10 @@
         <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -3282,10 +3381,10 @@
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -3296,10 +3395,10 @@
         <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -3310,10 +3409,10 @@
         <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3324,10 +3423,10 @@
         <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3338,10 +3437,10 @@
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -3352,10 +3451,10 @@
         <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3366,10 +3465,10 @@
         <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3380,10 +3479,10 @@
         <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -3397,7 +3496,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -3408,10 +3507,10 @@
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -3422,10 +3521,10 @@
         <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -3436,10 +3535,10 @@
         <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -3450,10 +3549,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -3464,10 +3563,10 @@
         <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -3478,10 +3577,10 @@
         <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -3492,10 +3591,10 @@
         <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -3506,10 +3605,10 @@
         <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>434</v>
+        <v>714</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>435</v>
+        <v>715</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -3520,10 +3619,10 @@
         <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -3534,10 +3633,10 @@
         <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -3548,10 +3647,10 @@
         <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -3565,7 +3664,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -3576,10 +3675,10 @@
         <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -3593,7 +3692,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -3607,7 +3706,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -3621,7 +3720,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -3632,10 +3731,10 @@
         <v>89</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -3646,10 +3745,10 @@
         <v>90</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -3657,13 +3756,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -3674,10 +3773,10 @@
         <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -3691,7 +3790,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -3702,10 +3801,10 @@
         <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -3716,10 +3815,10 @@
         <v>94</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -3730,7 +3829,7 @@
         <v>95</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>95</v>
@@ -3755,13 +3854,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -3772,10 +3871,10 @@
         <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -3786,10 +3885,10 @@
         <v>98</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>465</v>
+        <v>716</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -3800,10 +3899,10 @@
         <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -3814,10 +3913,10 @@
         <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -3828,10 +3927,10 @@
         <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -3842,10 +3941,10 @@
         <v>102</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -3856,10 +3955,10 @@
         <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -3870,10 +3969,10 @@
         <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -3884,10 +3983,10 @@
         <v>105</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -3898,10 +3997,10 @@
         <v>106</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -3912,10 +4011,10 @@
         <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -3926,10 +4025,10 @@
         <v>108</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -3940,10 +4039,10 @@
         <v>109</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -3954,10 +4053,10 @@
         <v>110</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -3968,10 +4067,10 @@
         <v>111</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -3985,7 +4084,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -3999,7 +4098,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -4013,7 +4112,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -4027,7 +4126,7 @@
         <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -4041,7 +4140,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -4052,10 +4151,10 @@
         <v>117</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -4066,10 +4165,10 @@
         <v>118</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -4080,10 +4179,10 @@
         <v>119</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -4094,10 +4193,10 @@
         <v>120</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -4108,10 +4207,10 @@
         <v>121</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -4125,7 +4224,7 @@
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -4139,7 +4238,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -4150,10 +4249,10 @@
         <v>124</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -4164,10 +4263,10 @@
         <v>125</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -4178,10 +4277,10 @@
         <v>126</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -4192,10 +4291,10 @@
         <v>127</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -4206,10 +4305,10 @@
         <v>128</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -4220,10 +4319,10 @@
         <v>129</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -4234,10 +4333,10 @@
         <v>130</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -4248,10 +4347,10 @@
         <v>131</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -4262,10 +4361,10 @@
         <v>132</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -4276,10 +4375,10 @@
         <v>133</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -4293,7 +4392,7 @@
         <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -4307,7 +4406,7 @@
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -4318,10 +4417,10 @@
         <v>136</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -4332,10 +4431,10 @@
         <v>137</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -4349,7 +4448,7 @@
         <v>20</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -4363,7 +4462,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -4377,7 +4476,7 @@
         <v>22</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -4391,7 +4490,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -4402,10 +4501,10 @@
         <v>142</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -4419,7 +4518,7 @@
         <v>24</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -4427,13 +4526,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -4444,10 +4543,10 @@
         <v>144</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -4461,7 +4560,7 @@
         <v>25</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -4475,7 +4574,7 @@
         <v>26</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -4489,7 +4588,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -4503,7 +4602,7 @@
         <v>28</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -4517,7 +4616,7 @@
         <v>29</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -4531,7 +4630,7 @@
         <v>30</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -4542,10 +4641,10 @@
         <v>151</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -4559,7 +4658,7 @@
         <v>31</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -4570,10 +4669,10 @@
         <v>153</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -4584,10 +4683,10 @@
         <v>154</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -4601,7 +4700,7 @@
         <v>32</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -4615,7 +4714,7 @@
         <v>33</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -4629,7 +4728,7 @@
         <v>34</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -4643,7 +4742,7 @@
         <v>35</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4657,7 +4756,7 @@
         <v>36</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -4668,10 +4767,10 @@
         <v>160</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -4682,10 +4781,10 @@
         <v>161</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -4696,10 +4795,10 @@
         <v>162</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4710,10 +4809,10 @@
         <v>163</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -4724,10 +4823,10 @@
         <v>164</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -4738,10 +4837,10 @@
         <v>165</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -4752,10 +4851,10 @@
         <v>166</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -4766,10 +4865,10 @@
         <v>167</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -4780,10 +4879,10 @@
         <v>168</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -4794,10 +4893,10 @@
         <v>169</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -4808,10 +4907,10 @@
         <v>170</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -4822,10 +4921,10 @@
         <v>171</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>587</v>
+        <v>717</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -4836,10 +4935,10 @@
         <v>172</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -4850,10 +4949,10 @@
         <v>173</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -4867,7 +4966,7 @@
         <v>213</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -4878,10 +4977,10 @@
         <v>175</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -4892,10 +4991,10 @@
         <v>176</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -4909,7 +5008,7 @@
         <v>212</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -4920,10 +5019,10 @@
         <v>178</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -4934,10 +5033,10 @@
         <v>179</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -4951,7 +5050,7 @@
         <v>37</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -4962,10 +5061,10 @@
         <v>181</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -4976,10 +5075,10 @@
         <v>182</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -4990,10 +5089,10 @@
         <v>183</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -5004,10 +5103,10 @@
         <v>184</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -5018,10 +5117,10 @@
         <v>185</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -5032,10 +5131,10 @@
         <v>186</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -5046,10 +5145,10 @@
         <v>187</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -5060,10 +5159,10 @@
         <v>188</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -5074,10 +5173,10 @@
         <v>189</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -5088,10 +5187,10 @@
         <v>190</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -5102,10 +5201,10 @@
         <v>191</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -5113,13 +5212,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -5133,7 +5232,7 @@
         <v>10</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -5144,10 +5243,10 @@
         <v>193</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -5158,10 +5257,10 @@
         <v>194</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -5172,10 +5271,10 @@
         <v>195</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -5189,7 +5288,7 @@
         <v>38</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -5200,10 +5299,10 @@
         <v>197</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>634</v>
+        <v>719</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -5214,10 +5313,10 @@
         <v>198</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -5231,7 +5330,7 @@
         <v>39</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -5242,10 +5341,10 @@
         <v>200</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -5256,10 +5355,10 @@
         <v>201</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -5270,10 +5369,10 @@
         <v>202</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -5284,10 +5383,10 @@
         <v>203</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -5298,10 +5397,10 @@
         <v>204</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -5312,10 +5411,10 @@
         <v>205</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -5326,10 +5425,10 @@
         <v>206</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -5340,10 +5439,10 @@
         <v>207</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -5354,10 +5453,10 @@
         <v>208</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -5368,10 +5467,10 @@
         <v>209</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -5382,10 +5481,10 @@
         <v>210</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -5396,10 +5495,10 @@
         <v>211</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -5407,13 +5506,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>661</v>
+        <v>724</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>662</v>
+        <v>725</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -5421,13 +5520,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -5435,13 +5534,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -5449,13 +5548,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -5463,13 +5562,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -5477,13 +5576,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -5491,13 +5590,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -5505,13 +5604,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -5519,13 +5618,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -5533,13 +5632,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>679</v>
+        <v>648</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -5547,13 +5646,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -5561,13 +5660,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -5575,13 +5674,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -5589,13 +5688,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -5603,13 +5702,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -5617,13 +5716,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>239</v>
+        <v>758</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>227</v>
+        <v>726</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -5631,13 +5730,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -5645,13 +5744,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>228</v>
+        <v>729</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -5659,13 +5758,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>226</v>
+        <v>731</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -5673,13 +5772,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -5687,13 +5786,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -5701,13 +5800,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>675</v>
+        <v>644</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -5715,13 +5814,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -5729,13 +5828,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -5743,13 +5842,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -5757,13 +5856,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -5771,13 +5870,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -5785,13 +5884,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -5799,13 +5898,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>254</v>
+        <v>734</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -5813,13 +5912,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>255</v>
+        <v>736</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -5827,13 +5926,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>276</v>
+        <v>709</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>706</v>
+        <v>738</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -5841,13 +5940,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>277</v>
+        <v>710</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>275</v>
+        <v>708</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -5855,13 +5954,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>262</v>
+        <v>711</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -5869,13 +5968,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>260</v>
+        <v>668</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -5883,13 +5982,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>711</v>
+        <v>268</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -5897,13 +5996,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -5911,13 +6010,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>715</v>
+        <v>253</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>716</v>
+        <v>609</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -5925,13 +6024,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -5939,13 +6038,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>720</v>
+        <v>676</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -5953,13 +6052,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>270</v>
+        <v>677</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>724</v>
+        <v>678</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -5967,13 +6066,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>267</v>
+        <v>679</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>721</v>
+        <v>680</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -5981,13 +6080,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>268</v>
+        <v>681</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -5995,13 +6094,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -6009,13 +6108,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>725</v>
+        <v>260</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>726</v>
+        <v>683</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -6023,13 +6122,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>280</v>
+        <v>706</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>727</v>
+        <v>261</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -6037,13 +6136,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>281</v>
+        <v>707</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -6051,13 +6150,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>282</v>
+        <v>687</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>730</v>
+        <v>688</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -6065,13 +6164,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>284</v>
+        <v>689</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>287</v>
+        <v>690</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -6079,13 +6178,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>289</v>
+        <v>691</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -6093,13 +6192,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>291</v>
+        <v>692</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -6107,13 +6206,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>290</v>
+        <v>742</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -6121,13 +6220,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -6135,13 +6234,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -6149,13 +6248,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -6163,13 +6262,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -6177,13 +6276,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -6191,13 +6290,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -6205,13 +6304,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -6219,13 +6318,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -6233,13 +6332,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -6247,13 +6346,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -6261,13 +6360,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -6275,13 +6374,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -6289,13 +6388,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -6303,13 +6402,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -6317,13 +6416,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -6331,13 +6430,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -6345,13 +6444,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -6359,13 +6458,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -6373,13 +6472,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -6387,13 +6486,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -6401,13 +6500,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -6415,13 +6514,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>731</v>
+        <v>320</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -6429,13 +6528,153 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>732</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="2">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="2">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" s="2">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/convertStringRes/Pad国际化翻译.xlsx
+++ b/convertStringRes/Pad国际化翻译.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="928">
   <si>
     <t>确定</t>
   </si>
@@ -715,6 +715,2232 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lock_View_Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Hold_Talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_In_Speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Input_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Being_Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Opened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Overtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_More_Mistakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doorbell_Caller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_HD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_SD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_UHD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Unbound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用说明</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text02</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text03</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text04</t>
+  </si>
+  <si>
+    <t>已撤防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_02_Passby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Security_Fortification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Security_Disarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_06_WaterLeakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_43_Smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_09_GasLeakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火灾报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Noalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Atalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Universalalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_04_Emergencycall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch_On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch_Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭门铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Default_Name_A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_A6_On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_A6_Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人按门铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_A5_Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_25_Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前温度</t>
+  </si>
+  <si>
+    <t>Current Temp</t>
+  </si>
+  <si>
+    <t>当前湿度</t>
+  </si>
+  <si>
+    <t>Current Humi</t>
+  </si>
+  <si>
+    <t>设备已离线</t>
+  </si>
+  <si>
+    <t>Device Offline</t>
+  </si>
+  <si>
+    <t>湿冷</t>
+  </si>
+  <si>
+    <t>Wet Cold</t>
+  </si>
+  <si>
+    <t>偏冷</t>
+  </si>
+  <si>
+    <t>Relatively Cold</t>
+  </si>
+  <si>
+    <t>寒冷</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>干冷</t>
+  </si>
+  <si>
+    <t>Dry Cold</t>
+  </si>
+  <si>
+    <t>潮湿</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>舒适</t>
+  </si>
+  <si>
+    <t>Cosy</t>
+  </si>
+  <si>
+    <t>干燥</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>湿热</t>
+  </si>
+  <si>
+    <t>Wet Hot</t>
+  </si>
+  <si>
+    <t>偏热</t>
+  </si>
+  <si>
+    <t>Relatively Hot</t>
+  </si>
+  <si>
+    <t>炎热</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>干热</t>
+  </si>
+  <si>
+    <t>Dry Hot</t>
+  </si>
+  <si>
+    <t>注意保暖，建议除湿</t>
+  </si>
+  <si>
+    <t>Keep warm and do dehumidification</t>
+  </si>
+  <si>
+    <t>注意保暖</t>
+  </si>
+  <si>
+    <t>Pay attention to keep warm</t>
+  </si>
+  <si>
+    <t>防寒保暖，刻不容缓</t>
+  </si>
+  <si>
+    <t>It's urgent to keep warm</t>
+  </si>
+  <si>
+    <t>注意保暖，补充水分</t>
+  </si>
+  <si>
+    <t>Keep warm and re-hydrate</t>
+  </si>
+  <si>
+    <t>影响身体健康，建议除湿</t>
+  </si>
+  <si>
+    <t>Unhealthful， and dehumidification is suggested</t>
+  </si>
+  <si>
+    <t>注意补充水分</t>
+  </si>
+  <si>
+    <t>Pay attention to rehydration</t>
+  </si>
+  <si>
+    <t>注意防暑降温，建议除湿</t>
+  </si>
+  <si>
+    <t>Please do heat control and dehumidification</t>
+  </si>
+  <si>
+    <t>注意防暑降温</t>
+  </si>
+  <si>
+    <t>Pay attention to heat cooling</t>
+  </si>
+  <si>
+    <t>防暑降温，刻不容缓</t>
+  </si>
+  <si>
+    <t>It's urgent to do heat cooling</t>
+  </si>
+  <si>
+    <t>注意防暑降温，补充水分</t>
+  </si>
+  <si>
+    <t>Control heat and re-hydrate</t>
+  </si>
+  <si>
+    <t>Temp &amp; Humi change during last 24 hours</t>
+  </si>
+  <si>
+    <t>humiture_nowTemp</t>
+  </si>
+  <si>
+    <t>humiture_nowHum</t>
+  </si>
+  <si>
+    <t>humiture_title_01</t>
+  </si>
+  <si>
+    <t>humiture_title_02</t>
+  </si>
+  <si>
+    <t>humiture_title_03</t>
+  </si>
+  <si>
+    <t>humiture_title_04</t>
+  </si>
+  <si>
+    <t>humiture_title_05</t>
+  </si>
+  <si>
+    <t>humiture_title_06</t>
+  </si>
+  <si>
+    <t>humiture_title_07</t>
+  </si>
+  <si>
+    <t>humiture_title_08</t>
+  </si>
+  <si>
+    <t>humiture_title_09</t>
+  </si>
+  <si>
+    <t>humiture_title_10</t>
+  </si>
+  <si>
+    <t>humiture_title_11</t>
+  </si>
+  <si>
+    <t>humiture_txt_01</t>
+  </si>
+  <si>
+    <t>humiture_txt_02</t>
+  </si>
+  <si>
+    <t>humiture_txt_03</t>
+  </si>
+  <si>
+    <t>humiture_txt_04</t>
+  </si>
+  <si>
+    <t>humiture_txt_05</t>
+  </si>
+  <si>
+    <t>humiture_txt_06</t>
+  </si>
+  <si>
+    <t>humiture_txt_07</t>
+  </si>
+  <si>
+    <t>humiture_txt_08</t>
+  </si>
+  <si>
+    <t>humiture_txt_09</t>
+  </si>
+  <si>
+    <t>humiture_txt_10</t>
+  </si>
+  <si>
+    <t>humiture_title</t>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Categories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Areas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unclassified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bind User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情景任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkage Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timed Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Housekeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开启推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed Push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>分享来自：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Share from </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱或手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone Number Or Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录中...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect user password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-time Power </t>
+  </si>
+  <si>
+    <t>Cumulative Power</t>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>用电数据统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity Consumption Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity Consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation_doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门磁打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact Sensor is opened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改开关名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Switch Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No support for the time being&lt;br /&gt;The follow-up will be gradually improved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G企鹅摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G Smart Cloud Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能猫眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door Guardian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便看摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lookever Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能猫眼mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ding-dong mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外高清摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weather-proof HD Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless Scenario Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二氧化碳监测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2 Detector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5检测仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5 Detector Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗磁探测器</t>
+  </si>
+  <si>
+    <t>Contact Sensor</t>
+  </si>
+  <si>
+    <t>墙面插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall Socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动插座计量版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile Socket (metering)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浸传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Sensor</t>
+  </si>
+  <si>
+    <t>Siren</t>
+  </si>
+  <si>
+    <t>Temp &amp; Humi Sensor</t>
+  </si>
+  <si>
+    <t>Flammable Gas Sensor</t>
+  </si>
+  <si>
+    <t>Smoke Sensor</t>
+  </si>
+  <si>
+    <t>Password Lock</t>
+  </si>
+  <si>
+    <t>红外入侵探测器</t>
+  </si>
+  <si>
+    <t>PIR Motion Sensor</t>
+  </si>
+  <si>
+    <t>网络智能锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Retina Lock</t>
+  </si>
+  <si>
+    <t>玄武湖系列网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xuan Serial Smart Lock</t>
+  </si>
+  <si>
+    <t>六路场景开关02型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene Switch</t>
+  </si>
+  <si>
+    <t>单轨自动窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curtain Motor</t>
+  </si>
+  <si>
+    <t>Embedded Switch (1 gang)</t>
+  </si>
+  <si>
+    <t>Embedded Switch (2 gangs)</t>
+  </si>
+  <si>
+    <t>网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Touch Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智尚金属单路开关</t>
+  </si>
+  <si>
+    <t>Smart Metallic Switch (1 gang)</t>
+  </si>
+  <si>
+    <t>智尚金属两路开关</t>
+  </si>
+  <si>
+    <t>Smart Metallic Switch (2 gangs)</t>
+  </si>
+  <si>
+    <t>智尚金属三路开关</t>
+  </si>
+  <si>
+    <t>Smart Metallic Switch (3 gangs)</t>
+  </si>
+  <si>
+    <t>智尚金属窗帘控制器</t>
+  </si>
+  <si>
+    <t>Smart Metallic Curtain Controller</t>
+  </si>
+  <si>
+    <t>紫金山网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z Serial IoT Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panic Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞庭湖系列网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bern Serial IoT Doorlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络锁02型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Touch Lock 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One-way Switch</t>
+  </si>
+  <si>
+    <t>Two-way Switch</t>
+  </si>
+  <si>
+    <t>Three-way Switch</t>
+  </si>
+  <si>
+    <t>小物摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cylincam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一路绑定开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binding Switch (One Gang)</t>
+  </si>
+  <si>
+    <t>Binding Switch (Two Gangs)</t>
+  </si>
+  <si>
+    <t>Binding Switch (Three Gangs)</t>
+  </si>
+  <si>
+    <t>Curtain Controller</t>
+  </si>
+  <si>
+    <t>Air Switch (Metering Type)</t>
+  </si>
+  <si>
+    <t>双轨双驱自动窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double-track &amp; dual-driver curtain</t>
+  </si>
+  <si>
+    <t>Repeater</t>
+  </si>
+  <si>
+    <t>门铃声光器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doorbell Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位场景开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 gang wireless switch</t>
+  </si>
+  <si>
+    <t>2 gang wireless switch</t>
+  </si>
+  <si>
+    <t>3 gang wireless switch</t>
+  </si>
+  <si>
+    <t>Wireless home/away scenario switch</t>
+  </si>
+  <si>
+    <t>Wireless sleep/wake up scenario switch</t>
+  </si>
+  <si>
+    <t>2 gang curtain/roller blind switch</t>
+  </si>
+  <si>
+    <t>HVAC Controller(VRV)</t>
+  </si>
+  <si>
+    <t>Zigbee地暖控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heating Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美标控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U.S. Standard Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二氧化碳监测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2 Detector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5 Detector</t>
+  </si>
+  <si>
+    <t>Noise Detector</t>
+  </si>
+  <si>
+    <t>VOC Detector</t>
+  </si>
+  <si>
+    <t>LED Rainbow</t>
+  </si>
+  <si>
+    <t>Broadcasting station</t>
+  </si>
+  <si>
+    <t>全宅背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外转发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR Transmitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动插座非计量版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile Socket（Non metrology）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动机械手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric Manipulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光强监测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light intensity monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能晾衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Clothes Hanger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED炫彩灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门铃按钮02型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doorbell Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半角度红外转发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR Transmitter(Semi Direction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位免零线智能调光开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Gang Dimmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini网关声光设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini Gateway sound and light device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单火线单路触摸调光开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两位插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double GPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 x Multifunction Remote Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六键场景开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 x Multifunction Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Dimmer Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六键开关模组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-Circuit Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2模组-场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 x Multifunction Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2模组-开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想之花网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream Flower Gateway</t>
+  </si>
+  <si>
+    <t>墙面网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall Mounted Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mini Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖型网关(04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertical Gateway (04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02型网关(增强型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway (Enhanced version)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关02型(局域网)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Gateway(LAN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸顶网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceiling gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G企鹅1080P摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外摄像机网关</t>
+  </si>
+  <si>
+    <t>Outdoor Gateway</t>
+  </si>
+  <si>
+    <t>小物摄像机网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cylincam Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便看网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lookever Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Camera Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0106012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已设防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disarmed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数缺失或不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter loss or illegality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有权限进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No authority to operate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求签名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request signature error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user has already existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell phone verification code failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell phone verification code error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Got it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>已上保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety On</t>
+  </si>
+  <si>
+    <t>Safety Removed</t>
+  </si>
+  <si>
+    <t>已反锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>UHD</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>View Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press to Speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开锁中…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the lock…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁已开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock is open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request timeout， please try again</t>
+  </si>
+  <si>
+    <t>Door is double-locked and cannot be unlocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door bell is calling…</t>
+  </si>
+  <si>
+    <t>门铃来电...</t>
+  </si>
+  <si>
+    <t>高清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unbound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Notbound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not to bind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本产品仅可在设备端使用按键控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The product can be only controlled manually via button</t>
+  </si>
+  <si>
+    <t>Using instruction</t>
+  </si>
+  <si>
+    <t>已打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设防中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人经过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Someone passing by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有漏水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Leakage Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoke Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有可燃气体泄漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flammable gas warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Alarm</t>
+  </si>
+  <si>
+    <t>General Alarm</t>
+  </si>
+  <si>
+    <t>Fire Alarm</t>
+  </si>
+  <si>
+    <t>Stop Alarm</t>
+  </si>
+  <si>
+    <t>Alarming</t>
+  </si>
+  <si>
+    <t>正在紧急呼救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emergency Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启门铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Doorbell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Close Doorbell </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doorbell is ringing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去24小时温湿度变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connected Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firmware Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noscene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Firealarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_01_Stopalarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即可通过开关按键控制被绑定设备；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text05</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text06</t>
+  </si>
+  <si>
+    <t>Device_BindingSwitch_text07</t>
+  </si>
+  <si>
+    <t>then users can control the device to be bound via this device's button;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No scene yet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求超时，请检查网络！</t>
+  </si>
+  <si>
+    <t>Request timeout， please check the network</t>
+  </si>
+  <si>
+    <t>暂不支持，后续将逐渐完善</t>
+  </si>
+  <si>
+    <t>Smart dimmer switch (One gang， L)</t>
+  </si>
+  <si>
+    <t>电量低，请及时更换电池</t>
+  </si>
+  <si>
+    <t>The battery is low， please replace the battery in time</t>
+  </si>
+  <si>
+    <t>当前功率超出额定范围，已自动为您断电</t>
+  </si>
+  <si>
+    <t>The current power exceeding rated range，and the power is automatically cut off for you</t>
+  </si>
+  <si>
+    <t>Token失效，请重新登录</t>
+  </si>
+  <si>
+    <t>Token failure， please log in again</t>
+  </si>
+  <si>
+    <t>您的账号在另一设备上登录，如果不是本人操作，建议登录后修改密码</t>
+  </si>
+  <si>
+    <t>Your account is logined in another device. If it's not operated by you， password modification is highly recommended.</t>
+  </si>
+  <si>
+    <t>密码错误，请重试</t>
+  </si>
+  <si>
+    <t>Incorrect password， please try again</t>
+  </si>
+  <si>
+    <t>请求超时，请重试</t>
+  </si>
+  <si>
+    <t>操作失败，请重试</t>
+  </si>
+  <si>
+    <t>Operation failed， please try again</t>
+  </si>
+  <si>
+    <t>输入错误次数较多，门锁已被锁定，5分钟后再试</t>
+  </si>
+  <si>
+    <t>Multiple incorrect password enterings， lock is disabled， try again in 5 minutes</t>
+  </si>
+  <si>
+    <t>门已反锁，无法打开</t>
+  </si>
+  <si>
+    <t>确定本设备与被绑定受控设备处于同一网关内，</t>
+  </si>
+  <si>
+    <t>Make sure this device is under the same gateway with the device to be bound，</t>
+  </si>
+  <si>
+    <t>按住本设备【set键】，同时快击1下本设备需要绑定的开关按键，然后松开需要绑定的开关按键，【系统指示灯】闪烁1次并发出绑定请求。</t>
+  </si>
+  <si>
+    <t>press [SET KEY] and quickly click the button to be bound on this device 1 time， [SYSTEM INDICATOR] flickers 1 time and send out binding request.</t>
+  </si>
+  <si>
+    <t>20s内按上述相同方法操作被绑定设备按键，若绑定成功，【系统指示灯】闪烁3次，</t>
+  </si>
+  <si>
+    <t>Operate with the same method above within 20 seconds on the device to be bound. If binding is successful， [SYSTEM INDICATOR] flickers 3 times，</t>
+  </si>
+  <si>
+    <t>若绑定失败，【系统指示灯】闪烁6次。</t>
+  </si>
+  <si>
+    <t>if binding fails， [SYSTME INDICATOR] flickers 6 times.</t>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Humidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Humidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Curtains_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Curtains_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curtain 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curtain 2</t>
+  </si>
+  <si>
+    <t>暂无图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_Nopicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_cspwderror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_cs10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回部分参数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return part of the parameter is empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Default_Name_CMICA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penguin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您已观看2分钟，为节约电量，视频即将停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You've watched for 2 minutes， video will quit to save power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Unable_Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_Video_Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知状态，请检查设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown state， please check the device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_offLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0101032</t>
+  </si>
+  <si>
+    <t>log_alarm_0101042</t>
+  </si>
+  <si>
+    <t>log_alarm_0102031</t>
+  </si>
+  <si>
+    <t>log_alarm_0102041</t>
+  </si>
+  <si>
+    <t>log_alarm_0103022</t>
+  </si>
+  <si>
+    <t>log_alarm_0103042</t>
+  </si>
+  <si>
+    <t>log_alarm_0103052</t>
+  </si>
+  <si>
+    <t>log_alarm_0103062</t>
+  </si>
+  <si>
+    <t>log_alarm_0103162</t>
+  </si>
+  <si>
+    <t>log_alarm_0103041</t>
+  </si>
+  <si>
+    <t>log_alarm_0103051</t>
+  </si>
+  <si>
+    <t>log_alarm_0103061</t>
+  </si>
+  <si>
+    <t>log_alarm_0102042</t>
+  </si>
+  <si>
+    <t>log_alarm_0102052</t>
+  </si>
+  <si>
+    <t>log_alarm_0107021</t>
+  </si>
+  <si>
+    <t>log_alarm_0101011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有可燃气体泄漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已反锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除反锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门已关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门已开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续输入密码错误，系统已锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统已解除锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁被破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门未关好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门铃来电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动侦测监测到有人经过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人经过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人按门铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过钥匙开锁，请及时确认是否是家人操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上保险，请及时处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未反锁，请及时处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上保险未反锁，请及时处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人逗留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门铃来电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动侦测监测到有人经过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关照明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能遥控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中继器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安防设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Curtains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Remote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Repeater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_Category_Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人逗留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码已被修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启通用报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启火灾报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备被破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人紧急呼救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部传感器温度异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于异常位置，请检查设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Lock_Alreadylocked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,1962 +2949,367 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lock_View_Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Hold_Talk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_In_Speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Input_Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Being_Unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Opened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Overtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_More_Mistakes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doorbell_Caller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock_Unable_Open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera_HD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera_SD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera_UHD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Unbound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用说明</t>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text02</t>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text03</t>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text04</t>
-  </si>
-  <si>
-    <t>已撤防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_02_Passby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Security_Fortification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Security_Disarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_06_WaterLeakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_43_Smoke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_09_GasLeakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火灾报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_01_Noalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_01_Atalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_01_Universalalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_04_Emergencycall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch_On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch_Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭门铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Default_Name_A6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_A6_On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_A6_Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有人按门铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_A5_Ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_25_Unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前温度</t>
-  </si>
-  <si>
-    <t>Current Temp</t>
-  </si>
-  <si>
-    <t>当前湿度</t>
-  </si>
-  <si>
-    <t>Current Humi</t>
-  </si>
-  <si>
-    <t>设备已离线</t>
-  </si>
-  <si>
-    <t>Device Offline</t>
-  </si>
-  <si>
-    <t>湿冷</t>
-  </si>
-  <si>
-    <t>Wet Cold</t>
-  </si>
-  <si>
-    <t>偏冷</t>
-  </si>
-  <si>
-    <t>Relatively Cold</t>
-  </si>
-  <si>
-    <t>寒冷</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>干冷</t>
-  </si>
-  <si>
-    <t>Dry Cold</t>
-  </si>
-  <si>
-    <t>潮湿</t>
-  </si>
-  <si>
-    <t>Wet</t>
-  </si>
-  <si>
-    <t>舒适</t>
-  </si>
-  <si>
-    <t>Cosy</t>
-  </si>
-  <si>
-    <t>干燥</t>
-  </si>
-  <si>
-    <t>Dry</t>
-  </si>
-  <si>
-    <t>湿热</t>
-  </si>
-  <si>
-    <t>Wet Hot</t>
-  </si>
-  <si>
-    <t>偏热</t>
-  </si>
-  <si>
-    <t>Relatively Hot</t>
-  </si>
-  <si>
-    <t>炎热</t>
-  </si>
-  <si>
-    <t>Hot</t>
-  </si>
-  <si>
-    <t>干热</t>
-  </si>
-  <si>
-    <t>Dry Hot</t>
-  </si>
-  <si>
-    <t>注意保暖，建议除湿</t>
-  </si>
-  <si>
-    <t>Keep warm and do dehumidification</t>
-  </si>
-  <si>
-    <t>注意保暖</t>
-  </si>
-  <si>
-    <t>Pay attention to keep warm</t>
-  </si>
-  <si>
-    <t>防寒保暖，刻不容缓</t>
-  </si>
-  <si>
-    <t>It's urgent to keep warm</t>
-  </si>
-  <si>
-    <t>注意保暖，补充水分</t>
-  </si>
-  <si>
-    <t>Keep warm and re-hydrate</t>
-  </si>
-  <si>
-    <t>影响身体健康，建议除湿</t>
-  </si>
-  <si>
-    <t>Unhealthful， and dehumidification is suggested</t>
-  </si>
-  <si>
-    <t>注意补充水分</t>
-  </si>
-  <si>
-    <t>Pay attention to rehydration</t>
-  </si>
-  <si>
-    <t>注意防暑降温，建议除湿</t>
-  </si>
-  <si>
-    <t>Please do heat control and dehumidification</t>
-  </si>
-  <si>
-    <t>注意防暑降温</t>
-  </si>
-  <si>
-    <t>Pay attention to heat cooling</t>
-  </si>
-  <si>
-    <t>防暑降温，刻不容缓</t>
-  </si>
-  <si>
-    <t>It's urgent to do heat cooling</t>
-  </si>
-  <si>
-    <t>注意防暑降温，补充水分</t>
-  </si>
-  <si>
-    <t>Control heat and re-hydrate</t>
-  </si>
-  <si>
-    <t>Temp &amp; Humi change during last 24 hours</t>
-  </si>
-  <si>
-    <t>humiture_nowTemp</t>
-  </si>
-  <si>
-    <t>humiture_nowHum</t>
-  </si>
-  <si>
-    <t>offLine</t>
-  </si>
-  <si>
-    <t>humiture_title_01</t>
-  </si>
-  <si>
-    <t>humiture_title_02</t>
-  </si>
-  <si>
-    <t>humiture_title_03</t>
-  </si>
-  <si>
-    <t>humiture_title_04</t>
-  </si>
-  <si>
-    <t>humiture_title_05</t>
-  </si>
-  <si>
-    <t>humiture_title_06</t>
-  </si>
-  <si>
-    <t>humiture_title_07</t>
-  </si>
-  <si>
-    <t>humiture_title_08</t>
-  </si>
-  <si>
-    <t>humiture_title_09</t>
-  </si>
-  <si>
-    <t>humiture_title_10</t>
-  </si>
-  <si>
-    <t>humiture_title_11</t>
-  </si>
-  <si>
-    <t>humiture_txt_01</t>
-  </si>
-  <si>
-    <t>humiture_txt_02</t>
-  </si>
-  <si>
-    <t>humiture_txt_03</t>
-  </si>
-  <si>
-    <t>humiture_txt_04</t>
-  </si>
-  <si>
-    <t>humiture_txt_05</t>
-  </si>
-  <si>
-    <t>humiture_txt_06</t>
-  </si>
-  <si>
-    <t>humiture_txt_07</t>
-  </si>
-  <si>
-    <t>humiture_txt_08</t>
-  </si>
-  <si>
-    <t>humiture_txt_09</t>
-  </si>
-  <si>
-    <t>humiture_txt_10</t>
-  </si>
-  <si>
-    <t>humiture_title</t>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Offline</t>
-  </si>
-  <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message Center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Categories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Areas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unclassified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bind User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情景任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linkage Task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timed Task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Housekeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已开启推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closed Push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear Cache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>分享来自：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Share from </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱或手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phone Number Or Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Password </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logging in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录中...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User does not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorrect user password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Real-time Power </t>
-  </si>
-  <si>
-    <t>Cumulative Power</t>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>用电数据统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electricity Consumption Statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用电量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electricity Consumption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation_doing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门磁打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact Sensor is opened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Lock_door_Notclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door isn't Fully Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量低，请及时充电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery is low， please charge in time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has performed scene %1$s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has performed task %1$s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0102011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somebody passing by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有漏水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0102021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flammable gas leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Being locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Being double locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removing double lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turing on safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removing safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The door is closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The door is open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consecutive incorrect password enterings， system is locked down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System has removed lockdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock being sabotaged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door not fully closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%1$s unlock by intimidation way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door bell calling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somebody passing by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door bell calling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detected through the key to unlock， please confirm whether it is family members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Double Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0103121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock and Remove Double Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0104011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somebody lingering around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0104021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door bell calling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0104031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somebody passing by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0104042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%1$s users in the binding of your camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%1$s用户在操作绑定您的摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%1$s使用防胁迫密码开门，请及时处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%1$s unlocking with %2$s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%1$s用%2$s开锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已执行%1$s任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已执行%1$s场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0104051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Housekeeper %1$s turn on the camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家%1$s开启摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0204011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somebody lingering around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门铃来电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0204021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0105011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password being modified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0102032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enables general alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enables fire alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stops alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0101041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device being sabotaged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0102061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An emergency call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部传感器温度异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0107011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External sensor temperature anomalies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal sensor temperature anomalies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_alarm_0102071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In an abnormal position， please check the device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Lock</t>
+  </si>
+  <si>
+    <t>Camera</t>
   </si>
   <si>
     <t>Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改开关名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify Switch Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No support for the time being&lt;br /&gt;The follow-up will be gradually improved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unknown Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G企鹅摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G Smart Cloud Camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能猫眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Door Guardian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随便看摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lookever Camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能猫眼mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ding-dong mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户外高清摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weather-proof HD Camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥控器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wireless Scenario Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二氧化碳监测器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO2 Detector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM2.5检测仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM2.5 Detector Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门窗磁探测器</t>
-  </si>
-  <si>
-    <t>Contact Sensor</t>
-  </si>
-  <si>
-    <t>墙面插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wall Socket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动插座计量版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile Socket (metering)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水浸传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Sensor</t>
-  </si>
-  <si>
-    <t>Siren</t>
-  </si>
-  <si>
-    <t>Temp &amp; Humi Sensor</t>
-  </si>
-  <si>
-    <t>Flammable Gas Sensor</t>
-  </si>
-  <si>
-    <t>Smoke Sensor</t>
-  </si>
-  <si>
-    <t>Password Lock</t>
-  </si>
-  <si>
-    <t>红外入侵探测器</t>
-  </si>
-  <si>
-    <t>PIR Motion Sensor</t>
-  </si>
-  <si>
-    <t>网络智能锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Retina Lock</t>
-  </si>
-  <si>
-    <t>玄武湖系列网络锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xuan Serial Smart Lock</t>
-  </si>
-  <si>
-    <t>六路场景开关02型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene Switch</t>
-  </si>
-  <si>
-    <t>单轨自动窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curtain Motor</t>
-  </si>
-  <si>
-    <t>Embedded Switch (1 gang)</t>
-  </si>
-  <si>
-    <t>Embedded Switch (2 gangs)</t>
-  </si>
-  <si>
-    <t>网络锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Touch Lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智尚金属单路开关</t>
-  </si>
-  <si>
-    <t>Smart Metallic Switch (1 gang)</t>
-  </si>
-  <si>
-    <t>智尚金属两路开关</t>
-  </si>
-  <si>
-    <t>Smart Metallic Switch (2 gangs)</t>
-  </si>
-  <si>
-    <t>智尚金属三路开关</t>
-  </si>
-  <si>
-    <t>Smart Metallic Switch (3 gangs)</t>
-  </si>
-  <si>
-    <t>智尚金属窗帘控制器</t>
-  </si>
-  <si>
-    <t>Smart Metallic Curtain Controller</t>
-  </si>
-  <si>
-    <t>紫金山网络锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z Serial IoT Lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Panic Button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞庭湖系列网络锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bern Serial IoT Doorlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络锁02型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Touch Lock 02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单路开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One-way Switch</t>
-  </si>
-  <si>
-    <t>Two-way Switch</t>
-  </si>
-  <si>
-    <t>Three-way Switch</t>
-  </si>
-  <si>
-    <t>小物摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cylincam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一路绑定开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binding Switch (One Gang)</t>
-  </si>
-  <si>
-    <t>Binding Switch (Two Gangs)</t>
-  </si>
-  <si>
-    <t>Binding Switch (Three Gangs)</t>
-  </si>
-  <si>
-    <t>Curtain Controller</t>
-  </si>
-  <si>
-    <t>Air Switch (Metering Type)</t>
-  </si>
-  <si>
-    <t>双轨双驱自动窗帘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double-track &amp; dual-driver curtain</t>
-  </si>
-  <si>
-    <t>Repeater</t>
-  </si>
-  <si>
-    <t>门铃声光器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doorbell Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一位场景开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 gang wireless switch</t>
-  </si>
-  <si>
-    <t>2 gang wireless switch</t>
-  </si>
-  <si>
-    <t>3 gang wireless switch</t>
-  </si>
-  <si>
-    <t>Wireless home/away scenario switch</t>
-  </si>
-  <si>
-    <t>Wireless sleep/wake up scenario switch</t>
-  </si>
-  <si>
-    <t>2 gang curtain/roller blind switch</t>
-  </si>
-  <si>
-    <t>HVAC Controller(VRV)</t>
-  </si>
-  <si>
-    <t>Zigbee地暖控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heating Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美标控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U.S. Standard Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二氧化碳监测器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO2 Detector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM2.5 Detector</t>
-  </si>
-  <si>
-    <t>Noise Detector</t>
-  </si>
-  <si>
-    <t>VOC Detector</t>
-  </si>
-  <si>
-    <t>LED Rainbow</t>
-  </si>
-  <si>
-    <t>Broadcasting station</t>
-  </si>
-  <si>
-    <t>全宅背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Background Music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外转发器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR Transmitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动插座非计量版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile Socket（Non metrology）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动机械手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electric Manipulator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光强监测器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Light intensity monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能晾衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Clothes Hanger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED炫彩灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED Rainbow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门铃按钮02型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doorbell Button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半角度红外转发器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR Transmitter(Semi Direction)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一位免零线智能调光开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Gang Dimmer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini网关声光设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini Gateway sound and light device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单火线单路触摸调光开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两位插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double GPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 x Multifunction Remote Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六键场景开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 x Multifunction Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Dimmer Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六键开关模组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-Circuit Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2模组-场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 x Multifunction Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2模组-开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想之花网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream Flower Gateway</t>
-  </si>
-  <si>
-    <t>墙面网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wall Mounted Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mini Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竖型网关(04)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vertical Gateway (04)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02型网关(增强型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway (Enhanced version)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关02型(局域网)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Gateway(LAN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸顶网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ceiling gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G企鹅1080P摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户外摄像机网关</t>
-  </si>
-  <si>
-    <t>Outdoor Gateway</t>
-  </si>
-  <si>
-    <t>小物摄像机网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cylincam Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随便看网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lookever Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企鹅网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud Camera Gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_alarm_0106012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已设防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disarmed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已通电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interface Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数缺失或不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter loss or illegality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有权限进行操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No authority to operate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求签名错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request signature error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The user has already existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The user does not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell phone verification code failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机验证码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell phone verification code error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device does not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我知道了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Got it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Execution Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock</t>
-  </si>
-  <si>
-    <t>已上保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Safety On</t>
-  </si>
-  <si>
-    <t>Safety Removed</t>
-  </si>
-  <si>
-    <t>已反锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>UHD</t>
-  </si>
-  <si>
-    <t>Locked</t>
-  </si>
-  <si>
-    <t>View Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按住说话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Press to Speak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please enter password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开锁中…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the lock…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门锁已开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lock is open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request timeout， please try again</t>
-  </si>
-  <si>
-    <t>Door is double-locked and cannot be unlocked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Door bell is calling…</t>
-  </si>
-  <si>
-    <t>门铃来电...</t>
-  </si>
-  <si>
-    <t>高清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unbound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Notbound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not to bind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本产品仅可在设备端使用按键控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The product can be only controlled manually via button</t>
-  </si>
-  <si>
-    <t>Using instruction</t>
-  </si>
-  <si>
-    <t>已打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设防中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有人经过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Someone passing by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有漏水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Leakage Warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有烟雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smoke Warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有可燃气体泄漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flammable gas warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Alarm</t>
-  </si>
-  <si>
-    <t>General Alarm</t>
-  </si>
-  <si>
-    <t>Fire Alarm</t>
-  </si>
-  <si>
-    <t>Stop Alarm</t>
-  </si>
-  <si>
-    <t>Alarming</t>
-  </si>
-  <si>
-    <t>正在紧急呼救</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emergency Call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启门铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Doorbell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Close Doorbell </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doorbell is ringing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去24小时温湿度变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固件版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connected Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firmware Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noscene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_01_Firealarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_01_Stopalarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即可通过开关按键控制被绑定设备；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text05</t>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text06</t>
-  </si>
-  <si>
-    <t>Device_BindingSwitch_text07</t>
-  </si>
-  <si>
-    <t>then users can control the device to be bound via this device's button;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No scene yet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求超时，请检查网络！</t>
-  </si>
-  <si>
-    <t>Request timeout， please check the network</t>
-  </si>
-  <si>
-    <t>暂不支持，后续将逐渐完善</t>
-  </si>
-  <si>
-    <t>Smart dimmer switch (One gang， L)</t>
-  </si>
-  <si>
-    <t>电量低，请及时更换电池</t>
-  </si>
-  <si>
-    <t>The battery is low， please replace the battery in time</t>
-  </si>
-  <si>
-    <t>当前功率超出额定范围，已自动为您断电</t>
-  </si>
-  <si>
-    <t>The current power exceeding rated range，and the power is automatically cut off for you</t>
-  </si>
-  <si>
-    <t>Token失效，请重新登录</t>
-  </si>
-  <si>
-    <t>Token failure， please log in again</t>
-  </si>
-  <si>
-    <t>您的账号在另一设备上登录，如果不是本人操作，建议登录后修改密码</t>
-  </si>
-  <si>
-    <t>Your account is logined in another device. If it's not operated by you， password modification is highly recommended.</t>
-  </si>
-  <si>
-    <t>密码错误，请重试</t>
-  </si>
-  <si>
-    <t>Incorrect password， please try again</t>
-  </si>
-  <si>
-    <t>请求超时，请重试</t>
-  </si>
-  <si>
-    <t>操作失败，请重试</t>
-  </si>
-  <si>
-    <t>Operation failed， please try again</t>
-  </si>
-  <si>
-    <t>输入错误次数较多，门锁已被锁定，5分钟后再试</t>
-  </si>
-  <si>
-    <t>Multiple incorrect password enterings， lock is disabled， try again in 5 minutes</t>
-  </si>
-  <si>
-    <t>门已反锁，无法打开</t>
-  </si>
-  <si>
-    <t>确定本设备与被绑定受控设备处于同一网关内，</t>
-  </si>
-  <si>
-    <t>Make sure this device is under the same gateway with the device to be bound，</t>
-  </si>
-  <si>
-    <t>按住本设备【set键】，同时快击1下本设备需要绑定的开关按键，然后松开需要绑定的开关按键，【系统指示灯】闪烁1次并发出绑定请求。</t>
-  </si>
-  <si>
-    <t>press [SET KEY] and quickly click the button to be bound on this device 1 time， [SYSTEM INDICATOR] flickers 1 time and send out binding request.</t>
-  </si>
-  <si>
-    <t>20s内按上述相同方法操作被绑定设备按键，若绑定成功，【系统指示灯】闪烁3次，</t>
-  </si>
-  <si>
-    <t>Operate with the same method above within 20 seconds on the device to be bound. If binding is successful， [SYSTEM INDICATOR] flickers 3 times，</t>
-  </si>
-  <si>
-    <t>若绑定失败，【系统指示灯】闪烁6次。</t>
-  </si>
-  <si>
-    <t>if binding fails， [SYSTME INDICATOR] flickers 6 times.</t>
-  </si>
-  <si>
-    <t>未知状态，请检查设备</t>
-  </si>
-  <si>
-    <t>温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Humidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Humidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗帘二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Curtains_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Curtains_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curtain 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curtain 2</t>
-  </si>
-  <si>
-    <t>暂无图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera_Nopicture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_cspwderror</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_cs10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回部分参数为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Return part of the parameter is empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_Default_Name_CMICA3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企鹅摄像机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Curtain</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thermostat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2737,7 +3368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2746,11 +3377,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3050,17 +3695,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -3084,13 +3729,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3104,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3115,10 +3760,10 @@
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -3129,10 +3774,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -3143,10 +3788,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -3160,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -3174,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -3185,10 +3830,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -3202,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -3213,10 +3858,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -3227,10 +3872,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -3241,10 +3886,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -3255,10 +3900,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -3269,10 +3914,10 @@
         <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -3283,10 +3928,10 @@
         <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -3297,10 +3942,10 @@
         <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -3311,10 +3956,10 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -3325,10 +3970,10 @@
         <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -3339,10 +3984,10 @@
         <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -3353,10 +3998,10 @@
         <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -3367,10 +4012,10 @@
         <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -3381,10 +4026,10 @@
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -3395,10 +4040,10 @@
         <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -3409,10 +4054,10 @@
         <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3423,10 +4068,10 @@
         <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3437,10 +4082,10 @@
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -3451,10 +4096,10 @@
         <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3465,10 +4110,10 @@
         <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3479,10 +4124,10 @@
         <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -3496,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -3507,10 +4152,10 @@
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -3521,10 +4166,10 @@
         <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -3535,10 +4180,10 @@
         <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -3549,10 +4194,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -3563,10 +4208,10 @@
         <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -3577,10 +4222,10 @@
         <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -3591,10 +4236,10 @@
         <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -3605,10 +4250,10 @@
         <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -3619,10 +4264,10 @@
         <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -3633,10 +4278,10 @@
         <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -3647,10 +4292,10 @@
         <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -3664,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -3675,10 +4320,10 @@
         <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -3692,7 +4337,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -3706,7 +4351,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -3720,7 +4365,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -3731,10 +4376,10 @@
         <v>89</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -3745,10 +4390,10 @@
         <v>90</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -3756,13 +4401,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -3773,10 +4418,10 @@
         <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -3790,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -3801,10 +4446,10 @@
         <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -3815,10 +4460,10 @@
         <v>94</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -3829,7 +4474,7 @@
         <v>95</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>95</v>
@@ -3854,13 +4499,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -3871,10 +4516,10 @@
         <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -3885,10 +4530,10 @@
         <v>98</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -3899,10 +4544,10 @@
         <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -3913,10 +4558,10 @@
         <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -3927,10 +4572,10 @@
         <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -3941,10 +4586,10 @@
         <v>102</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -3955,10 +4600,10 @@
         <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -3969,10 +4614,10 @@
         <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -3983,10 +4628,10 @@
         <v>105</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -3997,10 +4642,10 @@
         <v>106</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -4011,10 +4656,10 @@
         <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -4025,10 +4670,10 @@
         <v>108</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -4039,10 +4684,10 @@
         <v>109</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -4053,10 +4698,10 @@
         <v>110</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -4067,10 +4712,10 @@
         <v>111</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -4084,7 +4729,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -4098,7 +4743,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -4112,7 +4757,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -4126,7 +4771,7 @@
         <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -4140,7 +4785,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -4151,10 +4796,10 @@
         <v>117</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -4165,10 +4810,10 @@
         <v>118</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -4179,10 +4824,10 @@
         <v>119</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -4193,10 +4838,10 @@
         <v>120</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -4207,10 +4852,10 @@
         <v>121</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -4224,7 +4869,7 @@
         <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -4238,7 +4883,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -4249,10 +4894,10 @@
         <v>124</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -4263,10 +4908,10 @@
         <v>125</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -4277,10 +4922,10 @@
         <v>126</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -4291,10 +4936,10 @@
         <v>127</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -4305,10 +4950,10 @@
         <v>128</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -4319,10 +4964,10 @@
         <v>129</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -4333,10 +4978,10 @@
         <v>130</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -4347,10 +4992,10 @@
         <v>131</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -4361,10 +5006,10 @@
         <v>132</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -4375,10 +5020,10 @@
         <v>133</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -4392,7 +5037,7 @@
         <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -4406,7 +5051,7 @@
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -4417,10 +5062,10 @@
         <v>136</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -4431,10 +5076,10 @@
         <v>137</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -4448,7 +5093,7 @@
         <v>20</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -4462,7 +5107,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -4476,7 +5121,7 @@
         <v>22</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -4490,7 +5135,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -4501,10 +5146,10 @@
         <v>142</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -4518,7 +5163,7 @@
         <v>24</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -4526,13 +5171,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -4543,10 +5188,10 @@
         <v>144</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -4560,7 +5205,7 @@
         <v>25</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -4574,7 +5219,7 @@
         <v>26</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -4588,7 +5233,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -4602,7 +5247,7 @@
         <v>28</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -4616,7 +5261,7 @@
         <v>29</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -4630,7 +5275,7 @@
         <v>30</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -4641,10 +5286,10 @@
         <v>151</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -4658,7 +5303,7 @@
         <v>31</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -4669,10 +5314,10 @@
         <v>153</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -4683,10 +5328,10 @@
         <v>154</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -4700,7 +5345,7 @@
         <v>32</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -4714,7 +5359,7 @@
         <v>33</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -4728,7 +5373,7 @@
         <v>34</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -4742,7 +5387,7 @@
         <v>35</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4756,7 +5401,7 @@
         <v>36</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -4767,10 +5412,10 @@
         <v>160</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -4781,10 +5426,10 @@
         <v>161</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -4795,10 +5440,10 @@
         <v>162</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4809,10 +5454,10 @@
         <v>163</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -4823,10 +5468,10 @@
         <v>164</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -4837,10 +5482,10 @@
         <v>165</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -4851,10 +5496,10 @@
         <v>166</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -4865,10 +5510,10 @@
         <v>167</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -4879,10 +5524,10 @@
         <v>168</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -4893,10 +5538,10 @@
         <v>169</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -4907,10 +5552,10 @@
         <v>170</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -4921,10 +5566,10 @@
         <v>171</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -4935,10 +5580,10 @@
         <v>172</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -4949,10 +5594,10 @@
         <v>173</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -4966,7 +5611,7 @@
         <v>213</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -4977,10 +5622,10 @@
         <v>175</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -4991,10 +5636,10 @@
         <v>176</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -5008,7 +5653,7 @@
         <v>212</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -5019,10 +5664,10 @@
         <v>178</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -5033,10 +5678,10 @@
         <v>179</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -5050,7 +5695,7 @@
         <v>37</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -5061,10 +5706,10 @@
         <v>181</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -5075,10 +5720,10 @@
         <v>182</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -5089,10 +5734,10 @@
         <v>183</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -5103,10 +5748,10 @@
         <v>184</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -5117,10 +5762,10 @@
         <v>185</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -5131,10 +5776,10 @@
         <v>186</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -5145,10 +5790,10 @@
         <v>187</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -5159,10 +5804,10 @@
         <v>188</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -5173,10 +5818,10 @@
         <v>189</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -5187,10 +5832,10 @@
         <v>190</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -5201,10 +5846,10 @@
         <v>191</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -5212,13 +5857,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>438</v>
+        <v>609</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -5226,13 +5871,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>10</v>
+        <v>611</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -5240,13 +5885,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -5254,13 +5899,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -5268,13 +5913,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>607</v>
+        <v>718</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>608</v>
+        <v>719</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -5282,13 +5927,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>38</v>
+        <v>617</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -5296,13 +5941,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>718</v>
+        <v>619</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>719</v>
+        <v>620</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -5310,13 +5955,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -5324,13 +5969,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>39</v>
+        <v>623</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -5338,13 +5983,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>720</v>
+        <v>625</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>721</v>
+        <v>414</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -5352,13 +5997,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -5366,13 +6011,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>616</v>
+        <v>721</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -5380,13 +6025,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -5394,13 +6039,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -5408,13 +6053,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>722</v>
+        <v>632</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>723</v>
+        <v>633</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -5422,13 +6067,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>621</v>
+        <v>214</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -5436,13 +6081,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -5450,13 +6095,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>625</v>
+        <v>220</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -5464,13 +6109,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>209</v>
+        <v>833</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -5478,13 +6123,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>210</v>
+        <v>834</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>629</v>
+        <v>221</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>418</v>
+        <v>635</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -5492,13 +6137,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -5506,13 +6151,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>724</v>
+        <v>645</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>725</v>
+        <v>646</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -5520,13 +6165,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>632</v>
+        <v>223</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -5534,13 +6179,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>634</v>
+        <v>224</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -5548,13 +6193,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -5562,13 +6207,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>214</v>
+        <v>651</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -5576,13 +6221,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>226</v>
+        <v>753</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -5590,13 +6235,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>220</v>
+        <v>724</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -5604,13 +6249,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -5618,13 +6263,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>221</v>
+        <v>727</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>639</v>
+        <v>728</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -5632,13 +6277,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>229</v>
+        <v>762</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>222</v>
+        <v>729</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -5646,13 +6291,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -5660,13 +6305,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>223</v>
+        <v>657</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -5674,13 +6319,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -5688,13 +6333,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>653</v>
+        <v>238</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -5702,13 +6347,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>655</v>
+        <v>244</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -5716,13 +6361,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>758</v>
+        <v>659</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>726</v>
+        <v>243</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -5730,13 +6375,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -5744,13 +6389,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>729</v>
+        <v>245</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -5758,13 +6403,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -5772,13 +6417,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -5786,13 +6431,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>238</v>
+        <v>705</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -5800,13 +6445,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>242</v>
+        <v>706</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>644</v>
+        <v>708</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -5814,13 +6459,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>240</v>
+        <v>736</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>645</v>
+        <v>737</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -5828,13 +6473,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>241</v>
+        <v>664</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -5842,13 +6487,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -5856,13 +6501,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>663</v>
+        <v>252</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>246</v>
+        <v>667</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -5870,13 +6515,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>665</v>
+        <v>250</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -5884,13 +6529,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>248</v>
+        <v>669</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -5898,13 +6543,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>734</v>
+        <v>671</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>735</v>
+        <v>672</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -5912,13 +6557,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>736</v>
+        <v>673</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>737</v>
+        <v>674</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -5926,13 +6571,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>709</v>
+        <v>256</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>739</v>
+        <v>676</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -5940,13 +6585,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>710</v>
+        <v>261</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -5954,13 +6599,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>711</v>
+        <v>262</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>741</v>
+        <v>682</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -5968,13 +6613,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>668</v>
+        <v>257</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -5982,13 +6627,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>270</v>
+        <v>702</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -5996,13 +6641,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>255</v>
+        <v>703</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>671</v>
+        <v>259</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -6010,13 +6655,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>253</v>
+        <v>683</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -6024,13 +6669,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -6038,13 +6683,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>675</v>
+        <v>268</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -6052,13 +6697,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>677</v>
+        <v>272</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -6066,13 +6711,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -6080,13 +6725,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>681</v>
+        <v>275</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>682</v>
+        <v>276</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -6094,13 +6739,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>686</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -6108,13 +6753,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>266</v>
+        <v>766</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>683</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -6122,13 +6767,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>706</v>
+        <v>326</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>684</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -6136,13 +6781,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>707</v>
+        <v>327</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>685</v>
+        <v>284</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -6150,13 +6795,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>687</v>
+        <v>285</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>688</v>
+        <v>286</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -6164,13 +6809,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>689</v>
+        <v>287</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>690</v>
+        <v>288</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -6178,13 +6823,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>691</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -6192,13 +6837,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>692</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -6206,13 +6851,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>742</v>
+        <v>293</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -6220,13 +6865,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -6234,13 +6879,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -6248,13 +6893,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -6262,13 +6907,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -6276,13 +6921,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -6290,13 +6935,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -6304,13 +6949,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -6318,13 +6963,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -6332,13 +6977,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -6346,13 +6991,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -6360,13 +7005,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -6374,13 +7019,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -6388,13 +7033,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -6402,13 +7047,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -6416,13 +7061,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>306</v>
+        <v>689</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -6430,13 +7075,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>342</v>
+        <v>700</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>308</v>
+        <v>701</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>311</v>
+        <v>709</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -6444,13 +7089,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>343</v>
+        <v>740</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>310</v>
+        <v>738</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>313</v>
+        <v>741</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -6458,13 +7103,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>344</v>
+        <v>742</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>312</v>
+        <v>739</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>315</v>
+        <v>743</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -6472,13 +7117,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>345</v>
+        <v>746</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>314</v>
+        <v>744</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>317</v>
+        <v>748</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -6486,13 +7131,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>346</v>
+        <v>747</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>316</v>
+        <v>745</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>319</v>
+        <v>749</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -6500,13 +7145,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>347</v>
+        <v>751</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>318</v>
+        <v>750</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>321</v>
+        <v>752</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -6514,13 +7159,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>348</v>
+        <v>754</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>320</v>
+        <v>755</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>323</v>
+        <v>756</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -6528,13 +7173,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>349</v>
+        <v>757</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>322</v>
+        <v>758</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>325</v>
+        <v>759</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -6542,13 +7187,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>350</v>
+        <v>763</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>324</v>
+        <v>760</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>326</v>
+        <v>761</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -6556,13 +7201,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>351</v>
+        <v>835</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>693</v>
+        <v>794</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>326</v>
+        <v>836</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -6570,13 +7215,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>704</v>
+        <v>596</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>705</v>
+        <v>434</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>713</v>
+        <v>597</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -6584,13 +7229,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>745</v>
+        <v>192</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>743</v>
+        <v>10</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>746</v>
+        <v>598</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -6598,13 +7243,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>747</v>
+        <v>193</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>744</v>
+        <v>600</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>748</v>
+        <v>599</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -6612,13 +7257,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>751</v>
+        <v>194</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>749</v>
+        <v>601</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>753</v>
+        <v>602</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -6626,13 +7271,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>752</v>
+        <v>195</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>750</v>
+        <v>603</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>754</v>
+        <v>604</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -6640,13 +7285,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>756</v>
+        <v>196</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>755</v>
+        <v>38</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>757</v>
+        <v>605</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -6654,13 +7299,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>759</v>
+        <v>197</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>760</v>
+        <v>714</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>761</v>
+        <v>715</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -6668,17 +7313,790 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>762</v>
+        <v>198</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>763</v>
+        <v>606</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>764</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" s="2">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" s="2">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="2">
+        <v>262</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="2">
+        <v>263</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" s="2">
+        <v>264</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" s="2">
+        <v>265</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" s="2">
+        <v>266</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" s="2">
+        <v>267</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" s="2">
+        <v>268</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" s="2">
+        <v>269</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="2">
+        <v>270</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" s="2">
+        <v>271</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" s="2">
+        <v>272</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" s="2">
+        <v>273</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" s="2">
+        <v>274</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" s="2">
+        <v>275</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" s="2">
+        <v>276</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" s="2">
+        <v>277</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" s="2">
+        <v>278</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" s="2">
+        <v>279</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="2">
+        <v>280</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" s="2">
+        <v>281</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" s="2">
+        <v>282</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" s="2">
+        <v>283</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" s="2">
+        <v>287</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" s="2">
+        <v>288</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" s="2">
+        <v>289</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" s="2">
+        <v>290</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" s="2">
+        <v>291</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="2">
+        <v>292</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" s="2">
+        <v>293</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" s="2">
+        <v>301</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" s="2">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
